--- a/TIMES-DE/SuppXLS/Trades/ScenTrade_TRADE_AZ_ELC.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade_TRADE_AZ_ELC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES_AZ\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBEE11E-D83D-4408-9619-954AA29E1BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C266DE9-CB9A-CC42-9826-B70D92E5C24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15732" yWindow="528" windowWidth="21600" windowHeight="15552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_TRADE" sheetId="2" r:id="rId1"/>
@@ -211,25 +211,25 @@
     <t>2030-2050</t>
   </si>
   <si>
-    <t>AZ1</t>
-  </si>
-  <si>
-    <t>AZ2</t>
-  </si>
-  <si>
-    <t>AZ3</t>
-  </si>
-  <si>
-    <t>TB_ELCC_AZ1_AZ2_01</t>
-  </si>
-  <si>
-    <t>TB_ELCC_AZ1_AZ3_01</t>
-  </si>
-  <si>
-    <t>TB_ELCC_AZ2_AZ3_01</t>
-  </si>
-  <si>
     <t>MKr15</t>
+  </si>
+  <si>
+    <t>DE3</t>
+  </si>
+  <si>
+    <t>DE2</t>
+  </si>
+  <si>
+    <t>TB_ELCC_DE2_DE3_01</t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>TB_ELCC_DE1_DE2_01</t>
+  </si>
+  <si>
+    <t>TB_ELCC_DE1_DE3_01</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1512,32 +1512,32 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1559,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1</v>
@@ -1574,7 +1574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1588,10 +1588,10 @@
         <v>0.97</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1603,10 +1603,10 @@
       </c>
       <c r="I6" s="10" t="str">
         <f>I5</f>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE2_01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -1618,10 +1618,10 @@
       </c>
       <c r="I7" s="10" t="str">
         <f>I6</f>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE2_01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1634,10 +1634,10 @@
       <c r="H8" s="8"/>
       <c r="I8" s="10" t="str">
         <f t="shared" ref="I8:I13" si="0">I7</f>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE2_01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
         <v>43</v>
@@ -1657,11 +1657,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
+        <v>TB_ELCC_DE1_DE2_01</v>
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>43</v>
@@ -1681,11 +1681,11 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
+        <v>TB_ELCC_DE1_DE2_01</v>
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
@@ -1705,11 +1705,11 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
+        <v>TB_ELCC_DE1_DE2_01</v>
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>11</v>
@@ -1729,11 +1729,11 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
+        <v>TB_ELCC_DE1_DE2_01</v>
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
@@ -1751,13 +1751,13 @@
       <c r="H13" s="22"/>
       <c r="I13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>TB_ELCC_AZ1_AZ2_01</v>
+        <v>TB_ELCC_DE1_DE2_01</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -1771,10 +1771,10 @@
         <v>0.97</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -1786,10 +1786,10 @@
       </c>
       <c r="I15" s="10" t="str">
         <f>I14</f>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE3_01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="D16" t="s">
         <v>12</v>
       </c>
@@ -1801,10 +1801,10 @@
       </c>
       <c r="I16" s="10" t="str">
         <f>I15</f>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE3_01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="D17" t="s">
         <v>8</v>
       </c>
@@ -1817,10 +1817,10 @@
       </c>
       <c r="I17" s="10" t="str">
         <f t="shared" ref="I17:I21" si="1">I16</f>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE3_01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1839,10 +1839,10 @@
       </c>
       <c r="I18" s="10" t="str">
         <f>I17</f>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE3_01</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
@@ -1861,10 +1861,10 @@
       </c>
       <c r="I19" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE3_01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -1883,10 +1883,10 @@
       </c>
       <c r="I20" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE1_DE3_01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
@@ -1904,13 +1904,13 @@
       </c>
       <c r="I21" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>TB_ELCC_AZ1_AZ3_01</v>
+        <v>TB_ELCC_DE1_DE3_01</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="D22" t="s">
         <v>7</v>
       </c>
@@ -1924,10 +1924,10 @@
         <v>0.97</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -1939,10 +1939,10 @@
       </c>
       <c r="I23" s="10" t="str">
         <f>I22</f>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE2_DE3_01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="D24" t="s">
         <v>12</v>
       </c>
@@ -1954,10 +1954,10 @@
       </c>
       <c r="I24" s="10" t="str">
         <f>I23</f>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE2_DE3_01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="D25" t="s">
         <v>8</v>
       </c>
@@ -1969,10 +1969,10 @@
       </c>
       <c r="I25" s="10" t="str">
         <f t="shared" ref="I25" si="2">I24</f>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE2_DE3_01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
@@ -1990,10 +1990,10 @@
       </c>
       <c r="I26" s="10" t="str">
         <f>I25</f>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE2_DE3_01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
@@ -2011,10 +2011,10 @@
       </c>
       <c r="I27" s="10" t="str">
         <f t="shared" ref="I27:I29" si="3">I26</f>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE2_DE3_01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -2032,10 +2032,10 @@
       </c>
       <c r="I28" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+        <v>TB_ELCC_DE2_DE3_01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
         <v>41</v>
@@ -2051,10 +2051,10 @@
       </c>
       <c r="I29" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>TB_ELCC_AZ2_AZ3_01</v>
+        <v>TB_ELCC_DE2_DE3_01</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2076,20 +2076,20 @@
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="24" max="24" width="10.6640625" customWidth="1"/>
     <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5546875" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:27" ht="20">
       <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27">
       <c r="X2" t="s">
         <v>23</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27">
       <c r="X3" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27">
       <c r="X4" t="s">
         <v>18</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27">
       <c r="V5" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27">
       <c r="V6" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27">
       <c r="V7" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27">
       <c r="V9" t="s">
         <v>38</v>
       </c>
@@ -2170,12 +2170,12 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27">
       <c r="W12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27">
       <c r="W13" t="s">
         <v>29</v>
       </c>
@@ -2183,12 +2183,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27">
       <c r="W14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27">
       <c r="V15" s="12"/>
       <c r="W15" s="12">
         <f>Z9/2</f>
@@ -2202,7 +2202,7 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27">
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -2210,7 +2210,7 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="22:27">
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -2218,7 +2218,7 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="22:27">
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
@@ -2226,7 +2226,7 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
     </row>
-    <row r="19" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="22:27">
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
@@ -2234,7 +2234,7 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
     </row>
-    <row r="20" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="22:27">
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -2242,7 +2242,7 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
     </row>
-    <row r="21" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="22:27">
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -2250,7 +2250,7 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="22:27">
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
@@ -2258,7 +2258,7 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
     </row>
-    <row r="23" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="22:27">
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -2266,7 +2266,7 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
     </row>
-    <row r="24" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="22:27">
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
@@ -2274,7 +2274,7 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
-    <row r="25" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="22:27">
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
@@ -2282,7 +2282,7 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
     </row>
-    <row r="26" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="22:27">
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -2290,7 +2290,7 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
     </row>
-    <row r="27" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="22:27">
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
@@ -2298,7 +2298,7 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
     </row>
-    <row r="28" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="22:27">
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
@@ -2324,9 +2324,9 @@
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34">
       <c r="B2" s="23" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2373,114 +2373,114 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34">
       <c r="AH4" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34">
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34">
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34">
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34">
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34">
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34">
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34">
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34">
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34">
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:34">
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:34">
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34">
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="22:27">
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="22:27">
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="22:27">
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="22:27">
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="22:27">
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="28" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="22:27">
       <c r="X28" s="13" t="s">
         <v>39</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="AA28" s="17"/>
     </row>
-    <row r="29" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="22:27">
       <c r="X29" s="13" t="s">
         <v>40</v>
       </c>
@@ -2504,12 +2504,12 @@
       </c>
       <c r="AA29" s="17"/>
     </row>
-    <row r="32" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="22:27">
       <c r="X32" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28">
       <c r="Y33" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28">
       <c r="X34" t="s">
         <v>26</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28">
       <c r="X35" t="s">
         <v>27</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28">
       <c r="X36" t="s">
         <v>29</v>
       </c>
@@ -2551,13 +2551,13 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28">
       <c r="Y37">
         <f>SUM(Y35:Y36)</f>
         <v>2150</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -2574,6 +2574,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -2796,29 +2811,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E92680-A115-41CF-8E05-8F9967A15F27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E92680-A115-41CF-8E05-8F9967A15F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
+    <ds:schemaRef ds:uri="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade_TRADE_AZ_ELC.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade_TRADE_AZ_ELC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES_AZ\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBEE11E-D83D-4408-9619-954AA29E1BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2216E713-319D-E949-8108-706AD04128AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15732" yWindow="528" windowWidth="21600" windowHeight="15552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_TRADE" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Year</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>MKr15</t>
+  </si>
+  <si>
+    <t>curr: MKr15 per MW</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,7 +1189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1509,35 +1512,35 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1548,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="16" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>TB_ELCC_AZ1_AZ2_01</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>TB_ELCC_AZ1_AZ2_01</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>TB_ELCC_AZ1_AZ2_01</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
         <v>43</v>
@@ -1661,7 +1664,7 @@
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
         <v>43</v>
@@ -1685,7 +1688,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
@@ -1709,7 +1712,7 @@
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>11</v>
@@ -1733,7 +1736,7 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
@@ -1756,8 +1759,11 @@
       <c r="J13" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="D14" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>TB_ELCC_AZ1_AZ3_01</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="D16" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>TB_ELCC_AZ1_AZ3_01</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="D17" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>TB_ELCC_AZ1_AZ3_01</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>TB_ELCC_AZ1_AZ3_01</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>TB_ELCC_AZ1_AZ3_01</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>TB_ELCC_AZ1_AZ3_01</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
@@ -1910,7 +1916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="D22" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>TB_ELCC_AZ2_AZ3_01</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="D24" t="s">
         <v>12</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>TB_ELCC_AZ2_AZ3_01</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="D25" t="s">
         <v>8</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>TB_ELCC_AZ2_AZ3_01</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>TB_ELCC_AZ2_AZ3_01</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>TB_ELCC_AZ2_AZ3_01</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="C28" t="s">
         <v>11</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>TB_ELCC_AZ2_AZ3_01</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
         <v>41</v>
@@ -2072,24 +2078,24 @@
   </sheetPr>
   <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="S11" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="24" max="24" width="10.6640625" customWidth="1"/>
     <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5546875" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:27" ht="20">
       <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27">
       <c r="X2" t="s">
         <v>23</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27">
       <c r="X3" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27">
       <c r="X4" t="s">
         <v>18</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27">
       <c r="V5" t="s">
         <v>15</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27">
       <c r="V6" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27">
       <c r="V7" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27">
       <c r="V9" t="s">
         <v>38</v>
       </c>
@@ -2170,12 +2176,12 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27">
       <c r="W12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27">
       <c r="W13" t="s">
         <v>29</v>
       </c>
@@ -2183,12 +2189,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27">
       <c r="W14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27">
       <c r="V15" s="12"/>
       <c r="W15" s="12">
         <f>Z9/2</f>
@@ -2202,7 +2208,7 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27">
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -2210,7 +2216,7 @@
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
     </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="22:27">
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -2218,7 +2224,7 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
     </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="22:27">
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
@@ -2226,7 +2232,7 @@
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
     </row>
-    <row r="19" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="22:27">
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
@@ -2234,7 +2240,7 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
     </row>
-    <row r="20" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="22:27">
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
@@ -2242,7 +2248,7 @@
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
     </row>
-    <row r="21" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="22:27">
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -2250,7 +2256,7 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="22:27">
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
@@ -2258,7 +2264,7 @@
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
     </row>
-    <row r="23" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="22:27">
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -2266,7 +2272,7 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
     </row>
-    <row r="24" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="22:27">
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
@@ -2274,7 +2280,7 @@
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
-    <row r="25" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="22:27">
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
@@ -2282,7 +2288,7 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
     </row>
-    <row r="26" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="22:27">
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
@@ -2290,7 +2296,7 @@
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
     </row>
-    <row r="27" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="22:27">
       <c r="V27" s="12"/>
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
@@ -2298,7 +2304,7 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
     </row>
-    <row r="28" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="22:27">
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
@@ -2324,9 +2330,9 @@
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:34">
       <c r="B2" s="23" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2356,7 @@
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:34">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2373,114 +2379,114 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:34">
       <c r="AH4" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:34">
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:34">
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34">
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:34">
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:34">
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:34">
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:34">
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:34">
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:34">
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:34">
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:34">
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:34">
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="22:27">
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="22:27">
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="22:27">
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="22:27">
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="22:27">
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="28" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="22:27">
       <c r="X28" s="13" t="s">
         <v>39</v>
       </c>
@@ -2492,7 +2498,7 @@
       </c>
       <c r="AA28" s="17"/>
     </row>
-    <row r="29" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="22:27">
       <c r="X29" s="13" t="s">
         <v>40</v>
       </c>
@@ -2504,12 +2510,12 @@
       </c>
       <c r="AA29" s="17"/>
     </row>
-    <row r="32" spans="22:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="22:27">
       <c r="X32" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28">
       <c r="Y33" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:28">
       <c r="X34" t="s">
         <v>26</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:28">
       <c r="X35" t="s">
         <v>27</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:28">
       <c r="X36" t="s">
         <v>29</v>
       </c>
@@ -2551,13 +2557,13 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:28">
       <c r="Y37">
         <f>SUM(Y35:Y36)</f>
         <v>2150</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:28">
       <c r="B38" t="s">
         <v>28</v>
       </c>
@@ -2574,6 +2580,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -2796,29 +2817,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E92680-A115-41CF-8E05-8F9967A15F27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E92680-A115-41CF-8E05-8F9967A15F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
+    <ds:schemaRef ds:uri="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade_TRADE_AZ_ELC.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade_TRADE_AZ_ELC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2216E713-319D-E949-8108-706AD04128AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632E7BF-4191-D540-9A08-6D04A5FA91FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24680" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24620" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_TRADE" sheetId="2" r:id="rId1"/>
@@ -229,10 +229,10 @@
     <t>TB_ELCC_AZ2_AZ3_01</t>
   </si>
   <si>
-    <t>MKr15</t>
-  </si>
-  <si>
-    <t>curr: MKr15 per MW</t>
+    <t>MEUR14</t>
+  </si>
+  <si>
+    <t>curr: Meur per MW</t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1514,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2078,8 +2078,8 @@
   </sheetPr>
   <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView topLeftCell="S11" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="M1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2326,7 +2326,7 @@
   </sheetPr>
   <dimension ref="B2:AH38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
@@ -2580,21 +2580,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -2817,24 +2802,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8E92680-A115-41CF-8E05-8F9967A15F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2851,4 +2834,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCFB0AB-85DB-4F0E-94C0-B4D60677B4B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B270BEA8-3E7E-48B6-A709-99E80E2955ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>